--- a/data/pca/factorExposure/factorExposure_2015-03-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-03-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,15 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +720,45 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02299437482997444</v>
+        <v>0.0122547543704371</v>
       </c>
       <c r="C2">
-        <v>0.02448098033423921</v>
+        <v>0.05148711828616175</v>
       </c>
       <c r="D2">
-        <v>-0.1488094485108052</v>
+        <v>-0.1201288710297227</v>
       </c>
       <c r="E2">
-        <v>0.07035129753403457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.05068734978080455</v>
+      </c>
+      <c r="F2">
+        <v>0.04238022276213352</v>
+      </c>
+      <c r="G2">
+        <v>-0.1436255678858925</v>
+      </c>
+      <c r="H2">
+        <v>0.07227289704397157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +772,45 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04684250870667948</v>
+        <v>0.02027382790185821</v>
       </c>
       <c r="C4">
-        <v>0.0734580745647507</v>
+        <v>0.1093213563266071</v>
       </c>
       <c r="D4">
-        <v>-0.1044278221258694</v>
+        <v>-0.1161411663345151</v>
       </c>
       <c r="E4">
-        <v>0.1217421706899656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.04942232574927848</v>
+      </c>
+      <c r="F4">
+        <v>0.09967914737018704</v>
+      </c>
+      <c r="G4">
+        <v>-0.03732765744442666</v>
+      </c>
+      <c r="H4">
+        <v>-0.06833402957170802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +824,305 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0280887716778984</v>
+        <v>0.03294983667813401</v>
       </c>
       <c r="C6">
-        <v>0.01630716440089888</v>
+        <v>0.03733078382701864</v>
       </c>
       <c r="D6">
-        <v>-0.1142357896740955</v>
+        <v>-0.1000671367368417</v>
       </c>
       <c r="E6">
-        <v>0.07580768818653828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.08937845660221717</v>
+      </c>
+      <c r="F6">
+        <v>0.04719041024730068</v>
+      </c>
+      <c r="G6">
+        <v>0.001335071008045304</v>
+      </c>
+      <c r="H6">
+        <v>0.0127323462207463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.001632234659027757</v>
+        <v>0.006558012541820297</v>
       </c>
       <c r="C7">
-        <v>0.02511047865393596</v>
+        <v>0.04016409272631415</v>
       </c>
       <c r="D7">
-        <v>-0.1112783873309838</v>
+        <v>-0.0907788691848752</v>
       </c>
       <c r="E7">
-        <v>0.04032082312858017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.07952987914035697</v>
+      </c>
+      <c r="F7">
+        <v>0.01299133575880016</v>
+      </c>
+      <c r="G7">
+        <v>0.002227345396305863</v>
+      </c>
+      <c r="H7">
+        <v>-0.02337304403810493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.002990238410818769</v>
+        <v>-0.004690105345932291</v>
       </c>
       <c r="C8">
-        <v>0.02886399618743772</v>
+        <v>0.03908542475272331</v>
       </c>
       <c r="D8">
-        <v>-0.07763249237421045</v>
+        <v>-0.05934663842621568</v>
       </c>
       <c r="E8">
-        <v>0.05005460682796328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04995134488336857</v>
+      </c>
+      <c r="F8">
+        <v>0.04972749231989147</v>
+      </c>
+      <c r="G8">
+        <v>-0.07724429185818235</v>
+      </c>
+      <c r="H8">
+        <v>-0.0292119100445203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03655976745938767</v>
+        <v>0.01504020736904499</v>
       </c>
       <c r="C9">
-        <v>0.06457859355704346</v>
+        <v>0.0899054949677961</v>
       </c>
       <c r="D9">
-        <v>-0.1085129648518489</v>
+        <v>-0.1017752731290667</v>
       </c>
       <c r="E9">
-        <v>0.1000581719128072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.04202583502499029</v>
+      </c>
+      <c r="F9">
+        <v>0.06629185149582832</v>
+      </c>
+      <c r="G9">
+        <v>-0.01517069193592887</v>
+      </c>
+      <c r="H9">
+        <v>-0.02441870815594169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1855061537735864</v>
+        <v>0.2434356501817361</v>
       </c>
       <c r="C10">
-        <v>-0.1687233753314565</v>
+        <v>-0.09518662432965472</v>
       </c>
       <c r="D10">
-        <v>0.03753994225847821</v>
+        <v>0.01360467826397004</v>
       </c>
       <c r="E10">
-        <v>0.03913556504940634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0264210941010498</v>
+      </c>
+      <c r="F10">
+        <v>0.03999023323804883</v>
+      </c>
+      <c r="G10">
+        <v>0.00800189843989443</v>
+      </c>
+      <c r="H10">
+        <v>0.005427949300514746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.01709867601415381</v>
+        <v>0.01114089646915906</v>
       </c>
       <c r="C11">
-        <v>0.04193366748740357</v>
+        <v>0.05970841826697398</v>
       </c>
       <c r="D11">
-        <v>-0.04705041414629477</v>
+        <v>-0.03847399064705707</v>
       </c>
       <c r="E11">
-        <v>-0.007527720704260544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.03790529434868505</v>
+      </c>
+      <c r="F11">
+        <v>-0.01177846491043275</v>
+      </c>
+      <c r="G11">
+        <v>0.001865841045898072</v>
+      </c>
+      <c r="H11">
+        <v>-0.02116718163055746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.01575584047483395</v>
+        <v>0.01173318000449221</v>
       </c>
       <c r="C12">
-        <v>0.04272039496532432</v>
+        <v>0.05164489795545058</v>
       </c>
       <c r="D12">
-        <v>-0.06085205215380712</v>
+        <v>-0.04542093907213564</v>
       </c>
       <c r="E12">
-        <v>0.00693225090964688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.03430034236480076</v>
+      </c>
+      <c r="F12">
+        <v>-0.01494385746201623</v>
+      </c>
+      <c r="G12">
+        <v>0.01639123267484144</v>
+      </c>
+      <c r="H12">
+        <v>0.01368810605468469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.007883759137048347</v>
+        <v>0.002951447953957292</v>
       </c>
       <c r="C13">
-        <v>0.02744613622959531</v>
+        <v>0.05782560952585938</v>
       </c>
       <c r="D13">
-        <v>-0.129343768844833</v>
+        <v>-0.1530797256399682</v>
       </c>
       <c r="E13">
-        <v>0.07886153444611275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.07543317429909881</v>
+      </c>
+      <c r="F13">
+        <v>0.0414017818631896</v>
+      </c>
+      <c r="G13">
+        <v>-0.0587836592951634</v>
+      </c>
+      <c r="H13">
+        <v>0.07696407319409365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.00618053162410866</v>
+        <v>0.003638119839066131</v>
       </c>
       <c r="C14">
-        <v>0.01889716247546255</v>
+        <v>0.03398915230381854</v>
       </c>
       <c r="D14">
-        <v>-0.07911178463259778</v>
+        <v>-0.08565384074124009</v>
       </c>
       <c r="E14">
-        <v>0.03125850171246378</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.08472762780517298</v>
+      </c>
+      <c r="F14">
+        <v>0.02773968658504063</v>
+      </c>
+      <c r="G14">
+        <v>-0.02461044016324852</v>
+      </c>
+      <c r="H14">
+        <v>0.03429708886168716</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003083965999337966</v>
+        <v>-0.003716464144346002</v>
       </c>
       <c r="C15">
-        <v>0.01367400310196545</v>
+        <v>0.03000516028750175</v>
       </c>
       <c r="D15">
-        <v>-0.04671900995899896</v>
+        <v>-0.05812818890826921</v>
       </c>
       <c r="E15">
-        <v>0.01175087140767145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0366998099659512</v>
+      </c>
+      <c r="F15">
+        <v>0.009033824467663812</v>
+      </c>
+      <c r="G15">
+        <v>-0.03036853400419473</v>
+      </c>
+      <c r="H15">
+        <v>-0.01020884035281039</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01652212744900356</v>
+        <v>0.01040949458837302</v>
       </c>
       <c r="C16">
-        <v>0.03841878890329656</v>
+        <v>0.05221399685181729</v>
       </c>
       <c r="D16">
-        <v>-0.05279518238159477</v>
+        <v>-0.04166837614906036</v>
       </c>
       <c r="E16">
-        <v>0.00478566352657816</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.03993874350254067</v>
+      </c>
+      <c r="F16">
+        <v>-0.00639796905923623</v>
+      </c>
+      <c r="G16">
+        <v>0.0123622064908697</v>
+      </c>
+      <c r="H16">
+        <v>-0.009893263682357606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1136,19 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1162,227 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.001246173830765936</v>
+        <v>-0.002799031138501102</v>
       </c>
       <c r="C19">
-        <v>0.0202696941406463</v>
+        <v>0.01541558955335946</v>
       </c>
       <c r="D19">
-        <v>-0.07218078625461939</v>
+        <v>-0.04486595579097163</v>
       </c>
       <c r="E19">
-        <v>0.04990030796232037</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0009224925306379685</v>
+      </c>
+      <c r="F19">
+        <v>0.01211699676068388</v>
+      </c>
+      <c r="G19">
+        <v>-0.02120803837022551</v>
+      </c>
+      <c r="H19">
+        <v>0.02119761697294038</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002800354488190247</v>
+        <v>0.004740136206141698</v>
       </c>
       <c r="C20">
-        <v>0.02614054314445687</v>
+        <v>0.04303564960653881</v>
       </c>
       <c r="D20">
-        <v>-0.07037502970668731</v>
+        <v>-0.07900562085933599</v>
       </c>
       <c r="E20">
-        <v>0.05410738769082875</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04836833646391367</v>
+      </c>
+      <c r="F20">
+        <v>0.02763380385647665</v>
+      </c>
+      <c r="G20">
+        <v>0.004474244482499807</v>
+      </c>
+      <c r="H20">
+        <v>-0.02985333559768885</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008450084526665751</v>
+        <v>0.004158967881201147</v>
       </c>
       <c r="C21">
-        <v>0.03199373146065992</v>
+        <v>0.04885272491842162</v>
       </c>
       <c r="D21">
-        <v>-0.1221464716249795</v>
+        <v>-0.1119474609915734</v>
       </c>
       <c r="E21">
-        <v>0.112319089944311</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.06442803012191888</v>
+      </c>
+      <c r="F21">
+        <v>0.08879082514272622</v>
+      </c>
+      <c r="G21">
+        <v>-0.0694386265833514</v>
+      </c>
+      <c r="H21">
+        <v>0.1021912537325454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.002679213514312946</v>
+        <v>-0.006969393024584006</v>
       </c>
       <c r="C22">
-        <v>0.05403607784240231</v>
+        <v>0.07990304320761099</v>
       </c>
       <c r="D22">
-        <v>-0.2109803950629053</v>
+        <v>-0.2158606896380451</v>
       </c>
       <c r="E22">
-        <v>0.09057556799880667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04943897312351971</v>
+      </c>
+      <c r="F22">
+        <v>0.03961475201487032</v>
+      </c>
+      <c r="G22">
+        <v>-0.2504970823236017</v>
+      </c>
+      <c r="H22">
+        <v>-0.1006722029052975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.003061969804952479</v>
+        <v>-0.003900598309978741</v>
       </c>
       <c r="C23">
-        <v>0.05427426537644767</v>
+        <v>0.08158935452262055</v>
       </c>
       <c r="D23">
-        <v>-0.2096531810341553</v>
+        <v>-0.2195775799727689</v>
       </c>
       <c r="E23">
-        <v>0.09070991474863535</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04628416482497871</v>
+      </c>
+      <c r="F23">
+        <v>0.04255530728445988</v>
+      </c>
+      <c r="G23">
+        <v>-0.2438773483252265</v>
+      </c>
+      <c r="H23">
+        <v>-0.09510298598895985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02263333483780758</v>
+        <v>0.01155008597898653</v>
       </c>
       <c r="C24">
-        <v>0.06047494975479713</v>
+        <v>0.07012343160797228</v>
       </c>
       <c r="D24">
-        <v>-0.06735414327420271</v>
+        <v>-0.04376393241815825</v>
       </c>
       <c r="E24">
-        <v>0.009802402150061749</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.04705730467147263</v>
+      </c>
+      <c r="F24">
+        <v>-0.00489490624333375</v>
+      </c>
+      <c r="G24">
+        <v>-0.00612892773030167</v>
+      </c>
+      <c r="H24">
+        <v>-0.009417533288496188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02281522556123365</v>
+        <v>0.01585017879736156</v>
       </c>
       <c r="C25">
-        <v>0.05160173374727358</v>
+        <v>0.06437417667257314</v>
       </c>
       <c r="D25">
-        <v>-0.05886564461536514</v>
+        <v>-0.04805191778584936</v>
       </c>
       <c r="E25">
-        <v>0.0155369784672915</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.03232704603916901</v>
+      </c>
+      <c r="F25">
+        <v>-0.004624233852546527</v>
+      </c>
+      <c r="G25">
+        <v>0.01001324801171499</v>
+      </c>
+      <c r="H25">
+        <v>-0.008251318548574959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.009128356742666745</v>
+        <v>0.01718514615834878</v>
       </c>
       <c r="C26">
-        <v>0.01747381455053684</v>
+        <v>0.0305573374192219</v>
       </c>
       <c r="D26">
-        <v>-0.06611705473142981</v>
+        <v>-0.05250702977880314</v>
       </c>
       <c r="E26">
-        <v>0.03803284672921807</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.05941518722077514</v>
+      </c>
+      <c r="F26">
+        <v>0.04522557515815993</v>
+      </c>
+      <c r="G26">
+        <v>-0.03322282054779045</v>
+      </c>
+      <c r="H26">
+        <v>0.007212082081458753</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1396,253 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2645027081068173</v>
+        <v>0.3119690615123954</v>
       </c>
       <c r="C28">
-        <v>-0.1873141349936907</v>
+        <v>-0.09429538320792248</v>
       </c>
       <c r="D28">
-        <v>0.008912932381677126</v>
+        <v>0.01806158259953015</v>
       </c>
       <c r="E28">
-        <v>0.04115563873684924</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05586701175386426</v>
+      </c>
+      <c r="F28">
+        <v>0.04552282852241237</v>
+      </c>
+      <c r="G28">
+        <v>-0.06472580651069827</v>
+      </c>
+      <c r="H28">
+        <v>-0.006802945345381417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.001033450353173749</v>
+        <v>0.001874741753645816</v>
       </c>
       <c r="C29">
-        <v>0.02227919701495856</v>
+        <v>0.0401708179357186</v>
       </c>
       <c r="D29">
-        <v>-0.07543524075534221</v>
+        <v>-0.08951301806065071</v>
       </c>
       <c r="E29">
-        <v>0.03929969113944086</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.09665474398703258</v>
+      </c>
+      <c r="F29">
+        <v>0.03146147587631433</v>
+      </c>
+      <c r="G29">
+        <v>-0.01874782772454803</v>
+      </c>
+      <c r="H29">
+        <v>0.04209122772351419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02895888298757745</v>
+        <v>0.01737138098574141</v>
       </c>
       <c r="C30">
-        <v>0.0698306613238605</v>
+        <v>0.09645772932771829</v>
       </c>
       <c r="D30">
-        <v>-0.1497030040857587</v>
+        <v>-0.1190554613945875</v>
       </c>
       <c r="E30">
-        <v>0.064205391594128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.08744254395384</v>
+      </c>
+      <c r="F30">
+        <v>0.02203935303184742</v>
+      </c>
+      <c r="G30">
+        <v>-0.0313991768480002</v>
+      </c>
+      <c r="H30">
+        <v>-0.04270256387111755</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.03670594956577996</v>
+        <v>0.01103582994942453</v>
       </c>
       <c r="C31">
-        <v>0.08408935389276281</v>
+        <v>0.09475220260072621</v>
       </c>
       <c r="D31">
-        <v>-0.05480649186033388</v>
+        <v>-0.03459242466009944</v>
       </c>
       <c r="E31">
-        <v>0.02706675623893966</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02645671255815971</v>
+      </c>
+      <c r="F31">
+        <v>0.01783358593567957</v>
+      </c>
+      <c r="G31">
+        <v>-0.01953749893024208</v>
+      </c>
+      <c r="H31">
+        <v>-0.002981142654442622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01683808559956009</v>
+        <v>0.01244618768879356</v>
       </c>
       <c r="C32">
-        <v>0.04079303586332272</v>
+        <v>0.04951618904004885</v>
       </c>
       <c r="D32">
-        <v>-0.0844169176574819</v>
+        <v>-0.07922646125730562</v>
       </c>
       <c r="E32">
-        <v>0.07520917871815705</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.01574038173241179</v>
+      </c>
+      <c r="F32">
+        <v>0.04617465524160221</v>
+      </c>
+      <c r="G32">
+        <v>-0.02770095916622154</v>
+      </c>
+      <c r="H32">
+        <v>0.02720033003700706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.007309962633045196</v>
+        <v>0.007915865905229469</v>
       </c>
       <c r="C33">
-        <v>0.04112029286188127</v>
+        <v>0.06215602563377902</v>
       </c>
       <c r="D33">
-        <v>-0.1083059170612876</v>
+        <v>-0.1073257413768201</v>
       </c>
       <c r="E33">
-        <v>0.06507327003722675</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05943377675618357</v>
+      </c>
+      <c r="F33">
+        <v>0.02952698016504371</v>
+      </c>
+      <c r="G33">
+        <v>-0.01490445377503175</v>
+      </c>
+      <c r="H33">
+        <v>3.960857205947775e-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02089318222193999</v>
+        <v>0.01090324610239282</v>
       </c>
       <c r="C34">
-        <v>0.06103149218427023</v>
+        <v>0.06413222799944558</v>
       </c>
       <c r="D34">
-        <v>-0.06240164989762261</v>
+        <v>-0.02488599694702509</v>
       </c>
       <c r="E34">
-        <v>-0.03585650130664908</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03945117364776132</v>
+      </c>
+      <c r="F34">
+        <v>-0.03860005200323755</v>
+      </c>
+      <c r="G34">
+        <v>-0.002708169213176066</v>
+      </c>
+      <c r="H34">
+        <v>0.002639739368275673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-7.464093780476577e-05</v>
+        <v>0.003947708069623085</v>
       </c>
       <c r="C35">
-        <v>-0.0001850304709740473</v>
+        <v>0.01418805364305409</v>
       </c>
       <c r="D35">
-        <v>0.0002682483994162656</v>
+        <v>-0.03304754925985588</v>
       </c>
       <c r="E35">
-        <v>0.0001282712293474692</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01882866445575042</v>
+      </c>
+      <c r="F35">
+        <v>0.01660199977777422</v>
+      </c>
+      <c r="G35">
+        <v>-0.0004259022439938293</v>
+      </c>
+      <c r="H35">
+        <v>0.005804997005782501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.00733529259777937</v>
+        <v>0.0107355189937161</v>
       </c>
       <c r="C36">
-        <v>0.007843144970603273</v>
+        <v>0.02259823878440844</v>
       </c>
       <c r="D36">
-        <v>-0.06223191993617044</v>
+        <v>-0.06370672373796853</v>
       </c>
       <c r="E36">
-        <v>0.06091959698669407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.04757853491876764</v>
+      </c>
+      <c r="F36">
+        <v>0.05033595116903074</v>
+      </c>
+      <c r="G36">
+        <v>-0.02103120299601332</v>
+      </c>
+      <c r="H36">
+        <v>0.003176459746765818</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1656,123 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006602720107851788</v>
+        <v>0.01154751765068695</v>
       </c>
       <c r="C38">
-        <v>0.008254990023745971</v>
+        <v>0.02764367311210163</v>
       </c>
       <c r="D38">
-        <v>-0.09019296470177932</v>
+        <v>-0.08585898762011787</v>
       </c>
       <c r="E38">
-        <v>0.03319442027149625</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.03521390666290401</v>
+      </c>
+      <c r="F38">
+        <v>0.004874039074629327</v>
+      </c>
+      <c r="G38">
+        <v>-0.04174388949039799</v>
+      </c>
+      <c r="H38">
+        <v>-0.02981456613591283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.01576315858507637</v>
+        <v>0.006801330563849691</v>
       </c>
       <c r="C39">
-        <v>0.06175350829052347</v>
+        <v>0.08506973967309769</v>
       </c>
       <c r="D39">
-        <v>-0.1130922155941977</v>
+        <v>-0.08562368553639767</v>
       </c>
       <c r="E39">
-        <v>0.02435997827875832</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.08283331800443448</v>
+      </c>
+      <c r="F39">
+        <v>-0.004900631468939903</v>
+      </c>
+      <c r="G39">
+        <v>-0.004669460141589899</v>
+      </c>
+      <c r="H39">
+        <v>-0.00934245975845698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01645976769469523</v>
+        <v>0.0126336664635338</v>
       </c>
       <c r="C40">
-        <v>0.0262958350875614</v>
+        <v>0.0426878627946317</v>
       </c>
       <c r="D40">
-        <v>-0.1202922693782366</v>
+        <v>-0.08552902297012831</v>
       </c>
       <c r="E40">
-        <v>0.01756282609955614</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.07229147134364509</v>
+      </c>
+      <c r="F40">
+        <v>-0.02489097886145429</v>
+      </c>
+      <c r="G40">
+        <v>-0.08757415376020364</v>
+      </c>
+      <c r="H40">
+        <v>0.03563215358809052</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01052116325372603</v>
+        <v>0.01859752393776716</v>
       </c>
       <c r="C41">
-        <v>0.004395680568575559</v>
+        <v>0.02263766895015809</v>
       </c>
       <c r="D41">
-        <v>-0.03387986458733661</v>
+        <v>-0.04289112962461265</v>
       </c>
       <c r="E41">
-        <v>0.03422155200151069</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01135339716321445</v>
+      </c>
+      <c r="F41">
+        <v>0.02257720478633444</v>
+      </c>
+      <c r="G41">
+        <v>-0.01181613519688103</v>
+      </c>
+      <c r="H41">
+        <v>-0.002518210604391748</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1786,71 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.001031784512513456</v>
+        <v>0.009880627521475132</v>
       </c>
       <c r="C43">
-        <v>0.002422858170292362</v>
+        <v>0.01664067369196859</v>
       </c>
       <c r="D43">
-        <v>-0.04715815971902908</v>
+        <v>-0.04998777674221218</v>
       </c>
       <c r="E43">
-        <v>0.03270298674224938</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02600730201088432</v>
+      </c>
+      <c r="F43">
+        <v>0.02265345269410967</v>
+      </c>
+      <c r="G43">
+        <v>-0.01041923199647987</v>
+      </c>
+      <c r="H43">
+        <v>-0.01558586309814564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01916531793709806</v>
+        <v>0.01051048684763309</v>
       </c>
       <c r="C44">
-        <v>0.0259159106297633</v>
+        <v>0.04924398742643862</v>
       </c>
       <c r="D44">
-        <v>-0.09485880533112738</v>
+        <v>-0.09768624579377484</v>
       </c>
       <c r="E44">
-        <v>0.08052549395498869</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.06764044431565235</v>
+      </c>
+      <c r="F44">
+        <v>0.04010182672955825</v>
+      </c>
+      <c r="G44">
+        <v>-0.04771671489259251</v>
+      </c>
+      <c r="H44">
+        <v>-0.02064768668553193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +1864,175 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.003604590830388996</v>
+        <v>-0.001819871344680141</v>
       </c>
       <c r="C46">
-        <v>0.0312221367602955</v>
+        <v>0.04244727889099471</v>
       </c>
       <c r="D46">
-        <v>-0.08394745472178879</v>
+        <v>-0.06753322770116309</v>
       </c>
       <c r="E46">
-        <v>0.04164411642610624</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.07306301932910286</v>
+      </c>
+      <c r="F46">
+        <v>0.03392009931600346</v>
+      </c>
+      <c r="G46">
+        <v>-0.03099894919683479</v>
+      </c>
+      <c r="H46">
+        <v>0.003711829398480999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.07680927954509967</v>
+        <v>0.03197857305666236</v>
       </c>
       <c r="C47">
-        <v>0.1104722211376597</v>
+        <v>0.1271292699832708</v>
       </c>
       <c r="D47">
-        <v>-0.06466729083854732</v>
+        <v>-0.02475589400674912</v>
       </c>
       <c r="E47">
-        <v>0.03482839863695517</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.0005180947476695413</v>
+      </c>
+      <c r="F47">
+        <v>-0.004206091938426816</v>
+      </c>
+      <c r="G47">
+        <v>0.01338748630931006</v>
+      </c>
+      <c r="H47">
+        <v>-0.008268507249127057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01015416870843434</v>
+        <v>0.01385326863338815</v>
       </c>
       <c r="C48">
-        <v>0.01741927371555354</v>
+        <v>0.03380725636691195</v>
       </c>
       <c r="D48">
-        <v>-0.06871553449644831</v>
+        <v>-0.06828008849760654</v>
       </c>
       <c r="E48">
-        <v>0.06715465621510852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.04147250200242818</v>
+      </c>
+      <c r="F48">
+        <v>0.05692081229858992</v>
+      </c>
+      <c r="G48">
+        <v>-0.03288315995818</v>
+      </c>
+      <c r="H48">
+        <v>-0.005676304596593999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.0005706816229289787</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.0004187472406806946</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.0008044395444082656</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.000347251716928625</v>
+      </c>
+      <c r="F49">
+        <v>-0.001064130923547006</v>
+      </c>
+      <c r="G49">
+        <v>0.002429382668759515</v>
+      </c>
+      <c r="H49">
+        <v>0.0005549028455696965</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03276843195277858</v>
+        <v>0.01380455075958723</v>
       </c>
       <c r="C50">
-        <v>0.05800827011553626</v>
+        <v>0.07520640135348833</v>
       </c>
       <c r="D50">
-        <v>-0.06162558246727949</v>
+        <v>-0.04530089796051637</v>
       </c>
       <c r="E50">
-        <v>0.02166189231323993</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0263374889930378</v>
+      </c>
+      <c r="F50">
+        <v>0.01002482054054258</v>
+      </c>
+      <c r="G50">
+        <v>-0.02410421531112643</v>
+      </c>
+      <c r="H50">
+        <v>-0.01492805290128406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004832063142779758</v>
+        <v>-0.00390648187994678</v>
       </c>
       <c r="C51">
-        <v>0.007272820430613869</v>
+        <v>0.0184058701558786</v>
       </c>
       <c r="D51">
-        <v>-0.06429978583730241</v>
+        <v>-0.04348342793037171</v>
       </c>
       <c r="E51">
-        <v>0.02890741945463458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05077464944365421</v>
+      </c>
+      <c r="F51">
+        <v>0.03497302378178834</v>
+      </c>
+      <c r="G51">
+        <v>-0.0509013698334228</v>
+      </c>
+      <c r="H51">
+        <v>0.008945911145529676</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2046,123 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1110329680709255</v>
+        <v>0.06090803936110533</v>
       </c>
       <c r="C53">
-        <v>0.1273036867695371</v>
+        <v>0.1609829302347553</v>
       </c>
       <c r="D53">
-        <v>0.005472189537837519</v>
+        <v>0.01733655525736598</v>
       </c>
       <c r="E53">
-        <v>0.04493644022118445</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03218645946714694</v>
+      </c>
+      <c r="F53">
+        <v>0.04363662770186685</v>
+      </c>
+      <c r="G53">
+        <v>-0.007749675103513263</v>
+      </c>
+      <c r="H53">
+        <v>-0.01142267574917005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.00973076172957669</v>
+        <v>0.01136682776027299</v>
       </c>
       <c r="C54">
-        <v>0.0237978417492737</v>
+        <v>0.04014080103267448</v>
       </c>
       <c r="D54">
-        <v>-0.09062148362132379</v>
+        <v>-0.07303114144554165</v>
       </c>
       <c r="E54">
-        <v>0.02720733543930196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.03991486917546325</v>
+      </c>
+      <c r="F54">
+        <v>0.004808046607628081</v>
+      </c>
+      <c r="G54">
+        <v>-0.03543593907860351</v>
+      </c>
+      <c r="H54">
+        <v>-0.02125081762680569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09356689958856179</v>
+        <v>0.04352077213253524</v>
       </c>
       <c r="C55">
-        <v>0.1084480535131033</v>
+        <v>0.1289448084977634</v>
       </c>
       <c r="D55">
-        <v>-0.001399385399984693</v>
+        <v>0.04232595984390091</v>
       </c>
       <c r="E55">
-        <v>-0.004502124680302902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.005393622652790604</v>
+      </c>
+      <c r="F55">
+        <v>0.002967543589858015</v>
+      </c>
+      <c r="G55">
+        <v>-0.01043368406053541</v>
+      </c>
+      <c r="H55">
+        <v>0.008825877236511985</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1332068686734245</v>
+        <v>0.06144596475296636</v>
       </c>
       <c r="C56">
-        <v>0.14921813790005</v>
+        <v>0.1899352153980773</v>
       </c>
       <c r="D56">
-        <v>-0.02424365368854304</v>
+        <v>0.03246845123452081</v>
       </c>
       <c r="E56">
-        <v>0.004529086008599578</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03357320624197354</v>
+      </c>
+      <c r="F56">
+        <v>0.009799777933632249</v>
+      </c>
+      <c r="G56">
+        <v>-0.06138058066033007</v>
+      </c>
+      <c r="H56">
+        <v>0.001610131615165761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2176,123 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.00415144977681857</v>
+        <v>0.004961750601531403</v>
       </c>
       <c r="C58">
-        <v>0.01832090947584547</v>
+        <v>0.06073151219517756</v>
       </c>
       <c r="D58">
-        <v>-0.2108991409301737</v>
+        <v>-0.2669077168533915</v>
       </c>
       <c r="E58">
-        <v>0.1707250355531487</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.07229821702087598</v>
+      </c>
+      <c r="F58">
+        <v>0.139900994278848</v>
+      </c>
+      <c r="G58">
+        <v>-0.1600938998385776</v>
+      </c>
+      <c r="H58">
+        <v>-0.08416027040004752</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1876237369890192</v>
+        <v>0.2571876082875527</v>
       </c>
       <c r="C59">
-        <v>-0.1362578897142051</v>
+        <v>-0.06096800245209237</v>
       </c>
       <c r="D59">
-        <v>-0.04578800345015235</v>
+        <v>-0.04704370161981124</v>
       </c>
       <c r="E59">
-        <v>0.04205717556800419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01583901569235108</v>
+      </c>
+      <c r="F59">
+        <v>0.01907973683457347</v>
+      </c>
+      <c r="G59">
+        <v>-0.01896356559826235</v>
+      </c>
+      <c r="H59">
+        <v>0.03711514848482438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1859486816558274</v>
+        <v>0.1569091967945781</v>
       </c>
       <c r="C60">
-        <v>0.09480912437791694</v>
+        <v>0.1646992618824593</v>
       </c>
       <c r="D60">
-        <v>-0.1266357619894732</v>
+        <v>-0.03806641447044744</v>
       </c>
       <c r="E60">
-        <v>-0.08303587043043906</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1234209031080658</v>
+      </c>
+      <c r="F60">
+        <v>-0.197015638551801</v>
+      </c>
+      <c r="G60">
+        <v>0.2681504353294605</v>
+      </c>
+      <c r="H60">
+        <v>0.09414932999429297</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02633417189891035</v>
+        <v>0.01470146589281782</v>
       </c>
       <c r="C61">
-        <v>0.05703882216018827</v>
+        <v>0.08012409598593601</v>
       </c>
       <c r="D61">
-        <v>-0.08791713159617016</v>
+        <v>-0.06408036502083039</v>
       </c>
       <c r="E61">
-        <v>0.009748498962165871</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.06151351187368823</v>
+      </c>
+      <c r="F61">
+        <v>-0.01474260475883867</v>
+      </c>
+      <c r="G61">
+        <v>0.004500543659066199</v>
+      </c>
+      <c r="H61">
+        <v>0.002637031807393116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2306,201 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01144198136243802</v>
+        <v>0.01462779525261538</v>
       </c>
       <c r="C63">
-        <v>0.02540092584814298</v>
+        <v>0.04265979019138323</v>
       </c>
       <c r="D63">
-        <v>-0.07963160327603298</v>
+        <v>-0.05110170451874337</v>
       </c>
       <c r="E63">
-        <v>0.03583776207207096</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.07614646673138208</v>
+      </c>
+      <c r="F63">
+        <v>0.02403424982151306</v>
+      </c>
+      <c r="G63">
+        <v>-0.01306414445642182</v>
+      </c>
+      <c r="H63">
+        <v>-0.007683818593350962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05405969027624608</v>
+        <v>0.01818259306956187</v>
       </c>
       <c r="C64">
-        <v>0.08711108831444116</v>
+        <v>0.1035902427725726</v>
       </c>
       <c r="D64">
-        <v>-0.02655404519075863</v>
+        <v>-0.01450531236598818</v>
       </c>
       <c r="E64">
-        <v>0.02750720985577766</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03444350983961469</v>
+      </c>
+      <c r="F64">
+        <v>0.02217221572530576</v>
+      </c>
+      <c r="G64">
+        <v>0.01715099377198841</v>
+      </c>
+      <c r="H64">
+        <v>-0.03333196256284982</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02631956896268157</v>
+        <v>0.02577687557551346</v>
       </c>
       <c r="C65">
-        <v>0.01792045036899725</v>
+        <v>0.0457518808348933</v>
       </c>
       <c r="D65">
-        <v>-0.09859948224854159</v>
+        <v>-0.09910271035668515</v>
       </c>
       <c r="E65">
-        <v>0.03845967913038601</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.06985351593646205</v>
+      </c>
+      <c r="F65">
+        <v>-0.00287875427454712</v>
+      </c>
+      <c r="G65">
+        <v>0.03641753739721382</v>
+      </c>
+      <c r="H65">
+        <v>-0.0310174369038727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.02255688601975877</v>
+        <v>0.007334681271518062</v>
       </c>
       <c r="C66">
-        <v>0.07255329671822225</v>
+        <v>0.1051032380551213</v>
       </c>
       <c r="D66">
-        <v>-0.131390462937255</v>
+        <v>-0.1106603618401611</v>
       </c>
       <c r="E66">
-        <v>0.02774894151886636</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0777414618280982</v>
+      </c>
+      <c r="F66">
+        <v>-0.00513819377781125</v>
+      </c>
+      <c r="G66">
+        <v>-0.02315698563116989</v>
+      </c>
+      <c r="H66">
+        <v>-0.01353722192683967</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02284575741832698</v>
+        <v>0.02170048636564414</v>
       </c>
       <c r="C67">
-        <v>0.02006647084635999</v>
+        <v>0.03705654699460257</v>
       </c>
       <c r="D67">
-        <v>-0.05627979676315273</v>
+        <v>-0.04490366381584969</v>
       </c>
       <c r="E67">
-        <v>-0.003517090020034322</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.03193627232378473</v>
+      </c>
+      <c r="F67">
+        <v>-0.02511856556096859</v>
+      </c>
+      <c r="G67">
+        <v>-0.0182762272824153</v>
+      </c>
+      <c r="H67">
+        <v>-0.01997199585161194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2049080816439926</v>
+        <v>0.278412679982319</v>
       </c>
       <c r="C68">
-        <v>-0.148820348103636</v>
+        <v>-0.07244286801333087</v>
       </c>
       <c r="D68">
-        <v>-0.01858575419331433</v>
+        <v>-0.02627457186807381</v>
       </c>
       <c r="E68">
-        <v>0.02441852075770733</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001892865983411962</v>
+      </c>
+      <c r="F68">
+        <v>0.02783001794497747</v>
+      </c>
+      <c r="G68">
+        <v>-0.05925087490874822</v>
+      </c>
+      <c r="H68">
+        <v>0.001627200013170762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05629098644350544</v>
+        <v>0.0168678448697246</v>
       </c>
       <c r="C69">
-        <v>0.1183051361683441</v>
+        <v>0.1158575853298275</v>
       </c>
       <c r="D69">
-        <v>-0.07808678529342813</v>
+        <v>-0.02084026577172453</v>
       </c>
       <c r="E69">
-        <v>0.02565765966482714</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01455114245077935</v>
+      </c>
+      <c r="F69">
+        <v>-0.01291232122778633</v>
+      </c>
+      <c r="G69">
+        <v>0.001996788000507671</v>
+      </c>
+      <c r="H69">
+        <v>0.00591925049353225</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2514,669 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.2196431528257573</v>
+        <v>0.2711645889592458</v>
       </c>
       <c r="C71">
-        <v>-0.1731609214746047</v>
+        <v>-0.08765185794082427</v>
       </c>
       <c r="D71">
-        <v>-0.01563155010858941</v>
+        <v>-0.008535933481086739</v>
       </c>
       <c r="E71">
-        <v>0.0120371604834382</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007868025082475272</v>
+      </c>
+      <c r="F71">
+        <v>0.01633197782381209</v>
+      </c>
+      <c r="G71">
+        <v>-0.04697293304327391</v>
+      </c>
+      <c r="H71">
+        <v>-0.01437752427089095</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1006208426736108</v>
+        <v>0.06304474815428859</v>
       </c>
       <c r="C72">
-        <v>0.0739270119772503</v>
+        <v>0.1237985921740278</v>
       </c>
       <c r="D72">
-        <v>-0.1196915650122424</v>
+        <v>-0.05589865383451545</v>
       </c>
       <c r="E72">
-        <v>0.01482419272862909</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08623595227856715</v>
+      </c>
+      <c r="F72">
+        <v>-0.01865875649531712</v>
+      </c>
+      <c r="G72">
+        <v>0.03440392211065986</v>
+      </c>
+      <c r="H72">
+        <v>0.0005118979349409434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1760466602651672</v>
+        <v>0.1595425106041275</v>
       </c>
       <c r="C73">
-        <v>0.06885944997251074</v>
+        <v>0.1600470497257465</v>
       </c>
       <c r="D73">
-        <v>-0.2122795210095807</v>
+        <v>-0.06012855937233412</v>
       </c>
       <c r="E73">
-        <v>-0.137030353760752</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3063010722738663</v>
+      </c>
+      <c r="F73">
+        <v>-0.290785893109626</v>
+      </c>
+      <c r="G73">
+        <v>0.4279597313542949</v>
+      </c>
+      <c r="H73">
+        <v>0.06108130831256726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1041651731990921</v>
+        <v>0.05372411351243553</v>
       </c>
       <c r="C74">
-        <v>0.1161517527696571</v>
+        <v>0.1419201424050089</v>
       </c>
       <c r="D74">
-        <v>0.05020610883727199</v>
+        <v>0.0487062753847872</v>
       </c>
       <c r="E74">
-        <v>0.01587799333955843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.02851721770220817</v>
+      </c>
+      <c r="F74">
+        <v>0.03176157135391572</v>
+      </c>
+      <c r="G74">
+        <v>0.008902479688527991</v>
+      </c>
+      <c r="H74">
+        <v>-0.0004837519529234504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2222488894768058</v>
+        <v>0.1009740059241567</v>
       </c>
       <c r="C75">
-        <v>0.2033147173548729</v>
+        <v>0.2613477486795245</v>
       </c>
       <c r="D75">
-        <v>0.05898424931773679</v>
+        <v>0.1162023551544086</v>
       </c>
       <c r="E75">
-        <v>-0.06671732721144025</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.1196655663504499</v>
+      </c>
+      <c r="F75">
+        <v>-0.04276865323352604</v>
+      </c>
+      <c r="G75">
+        <v>-0.1151119637945745</v>
+      </c>
+      <c r="H75">
+        <v>-0.06361006398824716</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1341333967926669</v>
+        <v>0.0608713342082784</v>
       </c>
       <c r="C76">
-        <v>0.1381653010469733</v>
+        <v>0.1774167817090449</v>
       </c>
       <c r="D76">
-        <v>-0.0008110752993746333</v>
+        <v>0.05096547612814074</v>
       </c>
       <c r="E76">
-        <v>-0.00807783947853466</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03758063208601415</v>
+      </c>
+      <c r="F76">
+        <v>-0.001749730160130214</v>
+      </c>
+      <c r="G76">
+        <v>-0.04598305011022233</v>
+      </c>
+      <c r="H76">
+        <v>-0.01202425431010073</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.01449769360420562</v>
+        <v>0.0006841318704256718</v>
       </c>
       <c r="C77">
-        <v>0.07569304478774584</v>
+        <v>0.1152671221535142</v>
       </c>
       <c r="D77">
-        <v>-0.1796663507734473</v>
+        <v>-0.4957520926986509</v>
       </c>
       <c r="E77">
-        <v>0.1904887679166346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7596788577726231</v>
+      </c>
+      <c r="F77">
+        <v>-0.2067957823456029</v>
+      </c>
+      <c r="G77">
+        <v>0.2218943863732193</v>
+      </c>
+      <c r="H77">
+        <v>-0.018576487013329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.0334440987452882</v>
+        <v>0.02278909287273901</v>
       </c>
       <c r="C78">
-        <v>0.07214593331160057</v>
+        <v>0.09556065726561302</v>
       </c>
       <c r="D78">
-        <v>-0.1463328274693793</v>
+        <v>-0.08952427691372086</v>
       </c>
       <c r="E78">
-        <v>0.09383429486439149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07929008895134117</v>
+      </c>
+      <c r="F78">
+        <v>0.05308426746139718</v>
+      </c>
+      <c r="G78">
+        <v>-0.0836693567172087</v>
+      </c>
+      <c r="H78">
+        <v>0.04653074427158196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1079748840091049</v>
+        <v>0.04836332533987885</v>
       </c>
       <c r="C79">
-        <v>0.1992731333975072</v>
+        <v>0.2075768424676941</v>
       </c>
       <c r="D79">
-        <v>0.4833166826694263</v>
+        <v>0.1162258460505207</v>
       </c>
       <c r="E79">
-        <v>0.7421250654658297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1102153030310809</v>
+      </c>
+      <c r="F79">
+        <v>0.7852973916632352</v>
+      </c>
+      <c r="G79">
+        <v>0.4452068609788407</v>
+      </c>
+      <c r="H79">
+        <v>-0.01708277513736681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002769571000681576</v>
+        <v>0.006640443889345885</v>
       </c>
       <c r="C80">
-        <v>0.04435118835366607</v>
+        <v>0.04397189705467875</v>
       </c>
       <c r="D80">
-        <v>-0.04803985535654809</v>
+        <v>-0.03227742295201184</v>
       </c>
       <c r="E80">
-        <v>0.00834361192815561</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06162630819151935</v>
+      </c>
+      <c r="F80">
+        <v>0.00405446957228209</v>
+      </c>
+      <c r="G80">
+        <v>-0.0127734889641767</v>
+      </c>
+      <c r="H80">
+        <v>0.09006009026585284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1110425617545928</v>
+        <v>0.03787604417149392</v>
       </c>
       <c r="C81">
-        <v>0.135875199664097</v>
+        <v>0.160263726749102</v>
       </c>
       <c r="D81">
-        <v>0.07815033433070154</v>
+        <v>0.07094833204804919</v>
       </c>
       <c r="E81">
-        <v>0.00674201135292331</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06276817298473851</v>
+      </c>
+      <c r="F81">
+        <v>0.05581791010196204</v>
+      </c>
+      <c r="G81">
+        <v>-0.07550137770372549</v>
+      </c>
+      <c r="H81">
+        <v>0.01399261414016856</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2352210774758577</v>
+        <v>0.08645469831002844</v>
       </c>
       <c r="C82">
-        <v>0.2987516895206814</v>
+        <v>0.3044284226301954</v>
       </c>
       <c r="D82">
-        <v>0.1096454371311467</v>
+        <v>0.220838558438732</v>
       </c>
       <c r="E82">
-        <v>-0.2221468855052733</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1048947686287744</v>
+      </c>
+      <c r="F82">
+        <v>-0.1244371535206309</v>
+      </c>
+      <c r="G82">
+        <v>-0.1436628953641225</v>
+      </c>
+      <c r="H82">
+        <v>0.0188513210248315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01112362118346293</v>
+        <v>-0.009146742208663872</v>
       </c>
       <c r="C83">
-        <v>0.0525855814286869</v>
+        <v>0.01830571215681264</v>
       </c>
       <c r="D83">
-        <v>-0.00998869464602789</v>
+        <v>-0.03048981904021278</v>
       </c>
       <c r="E83">
-        <v>0.05052374987174042</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08950611206853537</v>
+      </c>
+      <c r="F83">
+        <v>0.07085780308762338</v>
+      </c>
+      <c r="G83">
+        <v>-0.1240864305548911</v>
+      </c>
+      <c r="H83">
+        <v>0.9240245508790386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.002320147685220393</v>
+        <v>-0.002883362584827656</v>
       </c>
       <c r="C84">
-        <v>0.00341898729604674</v>
+        <v>0.01754655962605587</v>
       </c>
       <c r="D84">
-        <v>-0.00748350690531811</v>
+        <v>-0.0440201111360275</v>
       </c>
       <c r="E84">
-        <v>-0.003447014364583062</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.01326831856402594</v>
+      </c>
+      <c r="F84">
+        <v>0.03192985339726719</v>
+      </c>
+      <c r="G84">
+        <v>-0.06032062261219275</v>
+      </c>
+      <c r="H84">
+        <v>-0.05068933016665549</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1400630748342096</v>
+        <v>0.05683124585267375</v>
       </c>
       <c r="C85">
-        <v>0.143839671523671</v>
+        <v>0.1773612917733364</v>
       </c>
       <c r="D85">
-        <v>0.07773379091910432</v>
+        <v>0.1088041576637039</v>
       </c>
       <c r="E85">
-        <v>0.01321922591566692</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.02380992770751479</v>
+      </c>
+      <c r="F85">
+        <v>0.06508416029598817</v>
+      </c>
+      <c r="G85">
+        <v>-0.0241550885733827</v>
+      </c>
+      <c r="H85">
+        <v>-0.01634115894293153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02066902912610763</v>
+        <v>0.01608791342345265</v>
       </c>
       <c r="C86">
-        <v>0.007956418641431793</v>
+        <v>0.03871489615539183</v>
       </c>
       <c r="D86">
-        <v>-0.1039831020016722</v>
+        <v>-0.1117396365624215</v>
       </c>
       <c r="E86">
-        <v>0.05440444127747501</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.002911331618021993</v>
+      </c>
+      <c r="F86">
+        <v>0.01803704171523506</v>
+      </c>
+      <c r="G86">
+        <v>0.01528101886573738</v>
+      </c>
+      <c r="H86">
+        <v>-0.02868898082330741</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02193242306316988</v>
+        <v>0.01302681195464066</v>
       </c>
       <c r="C87">
-        <v>0.03203324937406115</v>
+        <v>0.06660957652250356</v>
       </c>
       <c r="D87">
-        <v>-0.1353158255577736</v>
+        <v>-0.1342768935582643</v>
       </c>
       <c r="E87">
-        <v>0.09578476647984877</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.04808726486943896</v>
+      </c>
+      <c r="F87">
+        <v>0.05159606996198907</v>
+      </c>
+      <c r="G87">
+        <v>-0.08112799473995724</v>
+      </c>
+      <c r="H87">
+        <v>0.01295566391497308</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05010017839730099</v>
+        <v>0.03511149961795751</v>
       </c>
       <c r="C88">
-        <v>0.04603879106831744</v>
+        <v>0.07063630228606721</v>
       </c>
       <c r="D88">
-        <v>-0.002202568229984913</v>
+        <v>-0.01048467544555886</v>
       </c>
       <c r="E88">
-        <v>0.02009681010533334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.03207796847754606</v>
+      </c>
+      <c r="F88">
+        <v>0.01967353319973385</v>
+      </c>
+      <c r="G88">
+        <v>0.009332825055953082</v>
+      </c>
+      <c r="H88">
+        <v>-0.01885692310117692</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3277965036007333</v>
+        <v>0.3974862168895892</v>
       </c>
       <c r="C89">
-        <v>-0.314976276909568</v>
+        <v>-0.1648489841858637</v>
       </c>
       <c r="D89">
-        <v>-0.03733974875925501</v>
+        <v>-0.05772455731074756</v>
       </c>
       <c r="E89">
-        <v>0.1211591574535865</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.03492573979140632</v>
+      </c>
+      <c r="F89">
+        <v>0.06797729849076578</v>
+      </c>
+      <c r="G89">
+        <v>-0.07143875204902013</v>
+      </c>
+      <c r="H89">
+        <v>0.09344351536061635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2624726862689685</v>
+        <v>0.3213890981075835</v>
       </c>
       <c r="C90">
-        <v>-0.2320092714101855</v>
+        <v>-0.1088670830480601</v>
       </c>
       <c r="D90">
-        <v>-0.05560884202572904</v>
+        <v>-0.03282226922262167</v>
       </c>
       <c r="E90">
-        <v>0.005451933048961351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.00105717154930979</v>
+      </c>
+      <c r="F90">
+        <v>-0.00603895232461014</v>
+      </c>
+      <c r="G90">
+        <v>-0.06422393355833174</v>
+      </c>
+      <c r="H90">
+        <v>0.007167442373847445</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1473390765617216</v>
+        <v>0.06817405143696069</v>
       </c>
       <c r="C91">
-        <v>0.1927141168236512</v>
+        <v>0.2035187500239992</v>
       </c>
       <c r="D91">
-        <v>0.09843012665862565</v>
+        <v>0.09971406767416358</v>
       </c>
       <c r="E91">
-        <v>0.03805984350074411</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.08521454989570562</v>
+      </c>
+      <c r="F91">
+        <v>0.05730210766399042</v>
+      </c>
+      <c r="G91">
+        <v>-0.006333871834134207</v>
+      </c>
+      <c r="H91">
+        <v>0.0202691218274808</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2437379854083247</v>
+        <v>0.3321932611829608</v>
       </c>
       <c r="C92">
-        <v>-0.2584420806600524</v>
+        <v>-0.1502511435091414</v>
       </c>
       <c r="D92">
-        <v>0.05045823575735947</v>
+        <v>-0.02167147967053935</v>
       </c>
       <c r="E92">
-        <v>0.02727016326991327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0696112923995436</v>
+      </c>
+      <c r="F92">
+        <v>0.03745370415003106</v>
+      </c>
+      <c r="G92">
+        <v>-0.01391662853441721</v>
+      </c>
+      <c r="H92">
+        <v>-0.1314688656788784</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2843744547905076</v>
+        <v>0.3298491096663912</v>
       </c>
       <c r="C93">
-        <v>-0.2461892709353758</v>
+        <v>-0.123796396480599</v>
       </c>
       <c r="D93">
-        <v>0.01923523439671888</v>
+        <v>0.02493322805707755</v>
       </c>
       <c r="E93">
-        <v>-0.00394801476126497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.01187193581724764</v>
+      </c>
+      <c r="F93">
+        <v>0.01142620053605797</v>
+      </c>
+      <c r="G93">
+        <v>0.02349932176358027</v>
+      </c>
+      <c r="H93">
+        <v>-0.03592312795877004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2726943702136225</v>
+        <v>0.1255721329632864</v>
       </c>
       <c r="C94">
-        <v>0.2700587276826955</v>
+        <v>0.3274935505677093</v>
       </c>
       <c r="D94">
-        <v>0.2200903395237707</v>
+        <v>0.3464304160070551</v>
       </c>
       <c r="E94">
-        <v>-0.3027785657542871</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1360390918614816</v>
+      </c>
+      <c r="F94">
+        <v>-0.1366346681623681</v>
+      </c>
+      <c r="G94">
+        <v>-0.2930098759810973</v>
+      </c>
+      <c r="H94">
+        <v>-0.0631424121366858</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.009938107515594938</v>
+        <v>0.01721402067312145</v>
       </c>
       <c r="C95">
-        <v>0.0445303557225239</v>
+        <v>0.07190407505572258</v>
       </c>
       <c r="D95">
-        <v>-0.1065911418119809</v>
+        <v>-0.1412657059897471</v>
       </c>
       <c r="E95">
-        <v>0.07774013948819915</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.08854969607792774</v>
+      </c>
+      <c r="F95">
+        <v>-0.0344045335656145</v>
+      </c>
+      <c r="G95">
+        <v>0.05843096622069712</v>
+      </c>
+      <c r="H95">
+        <v>-0.05151782312106784</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3190,71 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002388341004158871</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0009514588068327409</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0001559788039017315</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003735179311793183</v>
+      </c>
+      <c r="F97">
+        <v>0.000655452145979493</v>
+      </c>
+      <c r="G97">
+        <v>-0.002161389108735541</v>
+      </c>
+      <c r="H97">
+        <v>-0.004992837547789118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1544895221236398</v>
+        <v>0.1368274117519459</v>
       </c>
       <c r="C98">
-        <v>0.09363394394234276</v>
+        <v>0.1636559341214978</v>
       </c>
       <c r="D98">
-        <v>-0.1369138542268565</v>
+        <v>-0.01918703375196985</v>
       </c>
       <c r="E98">
-        <v>-0.1288691654192314</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1946685132197035</v>
+      </c>
+      <c r="F98">
+        <v>-0.2386813476948927</v>
+      </c>
+      <c r="G98">
+        <v>0.306840856537518</v>
+      </c>
+      <c r="H98">
+        <v>0.07613820486820765</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3268,19 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3294,71 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.000255166864973533</v>
+        <v>0.002316354330576339</v>
       </c>
       <c r="C101">
-        <v>0.02155282940598683</v>
+        <v>0.03939463984136565</v>
       </c>
       <c r="D101">
-        <v>-0.0752361232673569</v>
+        <v>-0.08882047202421203</v>
       </c>
       <c r="E101">
-        <v>0.04025678131360139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.09571076357024352</v>
+      </c>
+      <c r="F101">
+        <v>0.0316295279807807</v>
+      </c>
+      <c r="G101">
+        <v>-0.01981625820683978</v>
+      </c>
+      <c r="H101">
+        <v>0.04202612794259595</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1002092075461282</v>
+        <v>0.02439118052931482</v>
       </c>
       <c r="C102">
-        <v>0.16335564996514</v>
+        <v>0.1427947690292483</v>
       </c>
       <c r="D102">
-        <v>0.01594984270391614</v>
+        <v>0.09410196881259136</v>
       </c>
       <c r="E102">
-        <v>-0.09489840683585511</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.05527944620414355</v>
+      </c>
+      <c r="F102">
+        <v>-0.0802726960108959</v>
+      </c>
+      <c r="G102">
+        <v>-0.01638324898258147</v>
+      </c>
+      <c r="H102">
+        <v>0.02625949159438607</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3372,19 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3396,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
